--- a/biology/Zoologie/Gonospira_deshayesi/Gonospira_deshayesi.xlsx
+++ b/biology/Zoologie/Gonospira_deshayesi/Gonospira_deshayesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonospira deshayesi est une espèce de mollusque gastéropode terrestre de la famille des streptaxidés. Elle constitue un représentant de la faune endémique de La Réunion[1], La Réunion étant une île française de l'océan Indien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonospira deshayesi est une espèce de mollusque gastéropode terrestre de la famille des streptaxidés. Elle constitue un représentant de la faune endémique de La Réunion, La Réunion étant une île française de l'océan Indien.
 </t>
         </is>
       </c>
